--- a/frontend/public/assets/content/geopolitica-ri/anki/perguntas_limpo.xlsx
+++ b/frontend/public/assets/content/geopolitica-ri/anki/perguntas_limpo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\projeto\cemos-2028\frontend\public\assets\content\geopolitica-ri\anki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B689FF6-A06C-48D0-A7E3-AD0F5BEA4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C0328-F32B-427E-9FF2-564FD1C7C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45040" yWindow="5330" windowWidth="28510" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="956">
   <si>
     <t>pergunta</t>
   </si>
@@ -2558,6 +2558,396 @@
   </si>
   <si>
     <t>As divergências ideológicas e estratégicas entre EUA e URSS foram projetadas em escala mundial, com conflitos indiretos ocorrendo em diversos continentes, transformando a disputa bipolar em um sistema globalizado de alianças e intervenções.</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Qual referência perturbadora Mackinder faz à China no final de seu artigo “The Geographical Pivot of History”?</t>
+  </si>
+  <si>
+    <t>Ele sugere que os chineses poderiam representar um "perigo amarelo" ao agregar uma frente oceânica aos recursos do grande continente, uma vantagem negada à Rússia.</t>
+  </si>
+  <si>
+    <t>De acordo com a análise de Mackinder, qual é a principal vantagem geoestratégica da China em comparação com a Rússia?</t>
+  </si>
+  <si>
+    <t>A China é uma potência continental com uma extensa frente oceânica em grande parte livre de gelo, ao contrário da Rússia, cuja frente oceânica é bloqueada pelo gelo ártico.</t>
+  </si>
+  <si>
+    <t>Mackinder definiu a Eurásia e a África juntas como a _____, o coração da terra seca do planeta.</t>
+  </si>
+  <si>
+    <t>Ilha Mundial</t>
+  </si>
+  <si>
+    <t>Em que faixa de latitude aproximadamente se encontra a China, de forma similar aos Estados Unidos?</t>
+  </si>
+  <si>
+    <t>Abaixo dos 50° de latitude norte, em uma faixa temperada.</t>
+  </si>
+  <si>
+    <t>Com quais cidades americanas as latitudes de Pequim e Xangai são comparáveis, respectivamente?</t>
+  </si>
+  <si>
+    <t>Pequim tem a mesma latitude de Nova York (40° N), e Xangai a mesma de Nova Orleans (30° N).</t>
+  </si>
+  <si>
+    <t>Historicamente, de onde vinha a principal ameaça à China ao longo dos milênios?</t>
+  </si>
+  <si>
+    <t>Das estepes eurasianas ao Norte e a Noroeste.</t>
+  </si>
+  <si>
+    <t>Por que as capitais das primeiras dinastias chinesas eram geralmente construídas no Rio Wei?</t>
+  </si>
+  <si>
+    <t>Para que a população estivesse a salvo dos nômades do planalto da Mongólia Interior, localizado ao norte.</t>
+  </si>
+  <si>
+    <t>Qual obra de engenharia, construída entre 605 e 611, foi fundamental para a unidade chinesa ao interligar o Norte e o Sul?</t>
+  </si>
+  <si>
+    <t>O Grande Canal</t>
+  </si>
+  <si>
+    <t>Quais dois grandes rios o Grande Canal interligou, unificando as regiões da China?</t>
+  </si>
+  <si>
+    <t>O Rio Amarelo e o Rio Yangtzé.</t>
+  </si>
+  <si>
+    <t>Segundo o historiador John Keay, a abertura do Grande Canal teve um efeito similar a qual desenvolvimento na América do Norte?</t>
+  </si>
+  <si>
+    <t>A instalação das primeiras ferrovias transcontinentais.</t>
+  </si>
+  <si>
+    <t>Conceito: "China interior" (neidi)</t>
+  </si>
+  <si>
+    <t>Refere-se à "planície central" (zhongyuan) cultivável, o centro étnico e agrícola da China, predominantemente Han.</t>
+  </si>
+  <si>
+    <t>Conceito: "China exterior" (waidi)</t>
+  </si>
+  <si>
+    <t>Refere-se às "fronteiras" (bianjiang) pastoris, a periferia que inclui regiões como Manchúria, Mongólia, Turquestão e Tibete.</t>
+  </si>
+  <si>
+    <t>Segundo o cientista político Jakub Grygiel, qual foi a principal função da Grande Muralha?</t>
+  </si>
+  <si>
+    <t>Reforçar a distinção ecológica (pastoril vs. arável) que se traduziu em diferenças políticas.</t>
+  </si>
+  <si>
+    <t>Qual foi o padrão histórico estabelecido a partir da dinastia Han em relação aos povos nômades?</t>
+  </si>
+  <si>
+    <t>A necessidade de investir continuamente na constituição de um "tampão" contra os povos das estepes e planaltos áridos.</t>
+  </si>
+  <si>
+    <t>Durante qual dinastia os exércitos chineses expandiram o Caminho da Seda e estabeleceram protetorados por toda a Ásia Central?</t>
+  </si>
+  <si>
+    <t>Dinastia Tang, no século VIII.</t>
+  </si>
+  <si>
+    <t>De acordo com John Keay, o confucionismo, formulado durante a era dos 'Reinos Combatentes', era inflexível com relação a quê?</t>
+  </si>
+  <si>
+    <t>Ao controle das forças armadas pelos civis.</t>
+  </si>
+  <si>
+    <t>Qual dinastia, de origem manchu, conseguiu recuperar o controle do interior da Ásia (Tibete, Turquestão, Mongólia) nos séculos XVII e XVIII?</t>
+  </si>
+  <si>
+    <t>A dinastia Qing.</t>
+  </si>
+  <si>
+    <t>Qual é o desafio demográfico interno fundamental do Estado chinês moderno?</t>
+  </si>
+  <si>
+    <t>A capacidade da parcela dominante Han de manter sob controle as minorias tibetanas, turcomanas e mongóis que vivem na periferia.</t>
+  </si>
+  <si>
+    <t>Ao contrário da Rússia, qual tem sido o principal meio pelo qual a China vem ampliando sua influência territorial nas últimas décadas?</t>
+  </si>
+  <si>
+    <t>Por meio do comércio, muito mais do que pela coação.</t>
+  </si>
+  <si>
+    <t>O texto descreve a China como uma combinação de modernidade ocidental com uma _____, comum aos antigos Oriente e Oriente Próximo.</t>
+  </si>
+  <si>
+    <t>Civilização hidráulica</t>
+  </si>
+  <si>
+    <t>Por que a China é descrita como uma potência "hiper-realista" em sua busca por recursos?</t>
+  </si>
+  <si>
+    <t>Porque seu interesse nacional vital (sobrevivência econômica) a leva a fazer parcerias com qualquer regime que ofereça estabilidade, independentemente de sua natureza (virtude).</t>
+  </si>
+  <si>
+    <t>A principal razão para a China se projetar para o exterior é a necessidade de assegurar _____, _____ e _____ para sustentar sua população.</t>
+  </si>
+  <si>
+    <t>Energia, Metais, Minerais estratégicos</t>
+  </si>
+  <si>
+    <t>Por que a Mongólia é considerada uma "pedra de toque" para julgar as futuras intenções chinesas?</t>
+  </si>
+  <si>
+    <t>Porque a China cobiça seus vastos recursos minerais e pode tentar conquistá-la demográfica e economicamente, testando os limites de sua expansão.</t>
+  </si>
+  <si>
+    <t>Qual é a principal vulnerabilidade do Extremo Oriente russo em relação à China?</t>
+  </si>
+  <si>
+    <t>O enorme desequilíbrio demográfico: uma população russa escassa e em declínio em uma vasta área rica em recursos, fronteiriça com 100 milhões de chineses na Manchúria.</t>
+  </si>
+  <si>
+    <t>O que significa o nome "Xinjiang", a província mais ocidental da China?</t>
+  </si>
+  <si>
+    <t>Significa "Novo Domínio".</t>
+  </si>
+  <si>
+    <t>Qual grupo étnico turcomano constitui uma minoria significativa em Xinjiang e tem um histórico de levantes contra o governo chinês?</t>
+  </si>
+  <si>
+    <t>Os uigures.</t>
+  </si>
+  <si>
+    <t>Por que o Tibete é geoestrategicamente crucial para a China, especialmente em relação aos recursos hídricos?</t>
+  </si>
+  <si>
+    <t>Porque as cabeceiras dos principais rios da Ásia (Amarelo, Yangtzé, Mekong, Indo, etc.) estão localizadas lá, constituindo um gigantesco manancial de água doce.</t>
+  </si>
+  <si>
+    <t>Como a Índia é descrita geograficamente em relação à crescente esfera de influência da China?</t>
+  </si>
+  <si>
+    <t>Como uma "rombuda cunha geográfica" que se projeta nessa esfera de influência, fadada a ser uma rival.</t>
+  </si>
+  <si>
+    <t>Qual estratégia a China utiliza em suas negociações com a ANSEA (Associação de Nações do Sudeste Asiático) para maximizar sua influência?</t>
+  </si>
+  <si>
+    <t>Uma estratégia de "dividir para conquistar", negociando individualmente com cada país em vez de com o bloco como um todo.</t>
+  </si>
+  <si>
+    <t>Por que a península coreana é considerada uma área onde a geografia da China é "mais incompleta"?</t>
+  </si>
+  <si>
+    <t>Porque a península é um apêndice geográfico da Manchúria e sua soberania dividida é uma fonte de instabilidade e frustração estratégica para Pequim.</t>
+  </si>
+  <si>
+    <t>Qual seria o provável resultado de uma reunificação coreana para as relações regionais, segundo o texto?</t>
+  </si>
+  <si>
+    <t>Uma Coreia unificada tenderia a se alinhar mais com a China economicamente, reduzindo a justificativa para a presença de tropas americanas e estimulando o rearmamento japonês.</t>
+  </si>
+  <si>
+    <t>A estabilização das fronteiras terrestres permitiu à China, historicamente focada em invasões por terra, começar a construir o quê?</t>
+  </si>
+  <si>
+    <t>Uma grande Marinha e projetar seu poder no Pacífico.</t>
+  </si>
+  <si>
+    <t>O que é a "Primeira Cadeia de Ilhas" do ponto de vista estratégico chinês?</t>
+  </si>
+  <si>
+    <t>Uma linha de ilhas e países (do Japão à Austrália), muitos aliados dos EUA, que funciona como uma barreira ou "Grande Muralha às avessas", encurralando a Marinha chinesa.</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da estratégia chinesa de "antiacesso/negação de área" (A2/AD) no Pacífico Ocidental?</t>
+  </si>
+  <si>
+    <t>Dissuadir a Marinha dos EUA de operar perto do litoral chinês, tornando o custo de uma intervenção proibitivamente alto.</t>
+  </si>
+  <si>
+    <t>Que tipo de armamento a China está desenvolvendo para ameaçar o principal ícone do poderio naval americano?</t>
+  </si>
+  <si>
+    <t>Mísseis balísticos antinavio com veículos de reentrada manobráveis, projetados para atingir porta-aviões.</t>
+  </si>
+  <si>
+    <t>Por que Taiwan é descrito pelo general Douglas MacArthur como um "porta-aviões inafundável"?</t>
+  </si>
+  <si>
+    <t>Devido à sua localização central na costa chinesa, a partir da qual um poder externo pode projetar força por toda a periferia litorânea da China.</t>
+  </si>
+  <si>
+    <t>Qual seria a consequência geopolítica mais significativa se a China conseguisse tomar Taiwan?</t>
+  </si>
+  <si>
+    <t>A "Grande Muralha" marítima seria rompida, liberando as energias militares chinesas para se projetarem para o exterior e marcando o surgimento de um mundo verdadeiramente multipolar.</t>
+  </si>
+  <si>
+    <t>O Mar da China Meridional é considerado por alguns como um "_____", devido aos seus potenciais depósitos de petróleo e gás.</t>
+  </si>
+  <si>
+    <t>Segundo Golfo Pérsico</t>
+  </si>
+  <si>
+    <t>Spykman comparou a ambição da China de controlar o Mar da China Meridional com a busca dos EUA pelo controle de qual mar?</t>
+  </si>
+  <si>
+    <t>O Mar do Caribe, que ele chamou de "Mediterrâneo americano".</t>
+  </si>
+  <si>
+    <t>O que a construção de uma grande base naval subterrânea na Ilha de Hainan sugere sobre as intenções da China no Mar da China Meridional?</t>
+  </si>
+  <si>
+    <t>Sugere uma asserção do direito do país à soberania sobre as águas circundantes, ao estilo da Doutrina Monroe, indo além da mera dissuasão.</t>
+  </si>
+  <si>
+    <t>Por que a Oceania, especialmente Guam, está ganhando importância estratégica para os Estados Unidos?</t>
+  </si>
+  <si>
+    <t>Porque está próxima o suficiente do Leste Asiático para projetar poder, mas fora do alcance dos mísseis antinavio mais avançados da China.</t>
+  </si>
+  <si>
+    <t>A estratégia americana de usar bases na Oceania para criar uma "presença regional em potencial" é descrita como estando '_____'.</t>
+  </si>
+  <si>
+    <t>logo depois do horizonte</t>
+  </si>
+  <si>
+    <t>Segundo Robert S. Ross, por que a contenção entre EUA e China no Leste Asiático será mais estável do que foi entre EUA e União Soviética?</t>
+  </si>
+  <si>
+    <t>Porque o poder naval americano é suficiente para conter a China no Rimland, sem a necessidade de uma grande força terrestre como foi preciso na Europa durante a Guerra Fria.</t>
+  </si>
+  <si>
+    <t>Qual é o dilema histórico da China, semelhante ao dos russos, em relação às suas fronteiras?</t>
+  </si>
+  <si>
+    <t>A necessidade de criar e manter Estados-tampão para se proteger de ameaças externas.</t>
+  </si>
+  <si>
+    <t>Qual é o principal fator que impulsiona a China a construir infraestrutura como estradas e dutos no Afeganistão e Paquistão?</t>
+  </si>
+  <si>
+    <t>A visão desses países como um corredor seguro para trazer recursos naturais da Ásia Central.</t>
+  </si>
+  <si>
+    <t>Além de Taiwan, qual país do Sudeste Asiático, um adversário histórico da China, é visto como uma barreira potencial à sua expansão?</t>
+  </si>
+  <si>
+    <t>O Vietnã</t>
+  </si>
+  <si>
+    <t>Apesar de serem aliados táticos, qual região representa uma fonte de tensão e desconfiança entre a Rússia e a China?</t>
+  </si>
+  <si>
+    <t>O Extremo Oriente russo, devido à infiltração demográfica e econômica chinesa na região.</t>
+  </si>
+  <si>
+    <t>A que se refere o conceito de "finlandização" do Leste Asiático no contexto do poder chinês?</t>
+  </si>
+  <si>
+    <t>A um cenário em que os países da região, embora formalmente independentes, ajustam suas políticas para não contrariar a China, a potência dominante.</t>
+  </si>
+  <si>
+    <t>Qual foi a principal causa da cisão sino-soviética durante a Guerra Fria, que a administração Nixon soube aproveitar?</t>
+  </si>
+  <si>
+    <t>Disputas de fronteira e o sentimento chinês de estar cercado por aliados soviéticos (Mongólia, Vietnã do Norte, Índia).</t>
+  </si>
+  <si>
+    <t>Por que a questão da sucessão do Dalai Lama inflama a rivalidade entre China e Índia?</t>
+  </si>
+  <si>
+    <t>Porque a Índia abriga o governo no exílio e o próximo Dalai Lama pode ser designado fora da China, no cinturão cultural tibetano que se estende pelo norte da Índia.</t>
+  </si>
+  <si>
+    <t>Qual estado himalaico é descrito como um "Estado-tampão" onde China e Índia disputam influência?</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Que nome a China dá às ilhas disputadas com o Japão no Mar da China Oriental?</t>
+  </si>
+  <si>
+    <t>Ilhas Diaoyu (enquanto o Japão as chama de Senkaku).</t>
+  </si>
+  <si>
+    <t>A China disputa a soberania sobre as Ilhas Spratly e Paracel com quais nações do Sudeste Asiático?</t>
+  </si>
+  <si>
+    <t>Principalmente com o Vietnã, Filipinas, Malásia e Brunei.</t>
+  </si>
+  <si>
+    <t>Alcançar a integração, preferencialmente por meios econômicos e sociais, tornando uma invasão militar desnecessária.</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo final da China em relação a Taiwan, segundo o texto?</t>
+  </si>
+  <si>
+    <t>O que o historiador John King Fairbank descreveu como uma das "glórias da antiga China", relacionada à filosofia confuciana?</t>
+  </si>
+  <si>
+    <t>O "pacifismo racional" e o mito do "governo pela virtude".</t>
+  </si>
+  <si>
+    <t>Em qual período dinástico a China adquiriu Taiwan pela primeira vez?</t>
+  </si>
+  <si>
+    <t>Em 1683, durante a dinastia Qing.</t>
+  </si>
+  <si>
+    <t>O que a reunificação de Taiwan com a China continental significaria para a credibilidade dos Estados Unidos junto a seus aliados asiáticos?</t>
+  </si>
+  <si>
+    <t>Causaria uma ruptura nas relações com aliados como Japão e Coreia do Sul, que questionariam os compromissos de segurança dos EUA.</t>
+  </si>
+  <si>
+    <t>Qual é a base militar americana em Guam, descrita como a mais proeminente plataforma para projeção de poder dos EUA?</t>
+  </si>
+  <si>
+    <t>A Andersen Air Force Base.</t>
+  </si>
+  <si>
+    <t>Qual é o argumento para os EUA diversificarem sua presença militar na Oceania em vez de se concentrarem excessivamente em Guam?</t>
+  </si>
+  <si>
+    <t>Para evitar a criação de "matrizes" que seriam alvos fáceis e para contornar a crescente resistência política local a bases estrangeiras.</t>
+  </si>
+  <si>
+    <t>Por que o Paquistão, apesar de ser um Estado semifalido na fronteira, não representa uma ameaça existencial para a China?</t>
+  </si>
+  <si>
+    <t>Porque a fronteira comum está em um terreno extremamente remoto e de alta altitude, com pouquíssima população, isolando a China de qualquer instabilidade interna paquistanesa.</t>
+  </si>
+  <si>
+    <t>No século XIX, qual nação tomou Taiwan da China?</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>O que o texto sugere sobre uma China mais democrática?</t>
+  </si>
+  <si>
+    <t>Que ela poderia se converter em uma grande potência ainda mais dinâmica nos sentidos econômico, cultural e militar do que a alternativa totalitária.</t>
+  </si>
+  <si>
+    <t>Uma relação ao estilo colonial clássico, onde a China exporta bens manufaturados de alto valor e importa produtos agrícolas de valor mais baixo.</t>
+  </si>
+  <si>
+    <t>A estratégia chinesa de 'dividir para conquistar' com a Associação das Nações do Sudeste Asiático (ANSEA) resultou em que tipo de relação econômica?</t>
+  </si>
+  <si>
+    <t>Em qual dinastia a China provavelmente tomou conhecimento da existência de Taiwan (Formosa)?</t>
+  </si>
+  <si>
+    <t>No século XIII, durante a dinastia Yuan.</t>
+  </si>
+  <si>
+    <t>Vingança da Geográifa</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2971,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2591,6 +2981,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,11 +3050,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2964,18 +3360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D423"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C61" sqref="A56:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="86.08984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="52.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="65.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2992,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3020,7 +3417,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3048,7 +3445,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3132,7 +3529,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3172,7 +3569,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3333,7 +3730,7 @@
       <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>782</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3480,7 +3877,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3586,7 +3983,7 @@
       <c r="C44" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>761</v>
       </c>
     </row>
@@ -3600,11 +3997,11 @@
       <c r="C45" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -3614,7 +4011,7 @@
       <c r="C46" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>807</v>
       </c>
     </row>
@@ -3628,19 +4025,19 @@
       <c r="C47" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>813</v>
       </c>
     </row>
@@ -3654,7 +4051,7 @@
       <c r="C49" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>812</v>
       </c>
     </row>
@@ -3668,7 +4065,7 @@
       <c r="C50" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>814</v>
       </c>
     </row>
@@ -3728,7 +4125,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>53</v>
       </c>
@@ -3826,7 +4223,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>60</v>
       </c>
@@ -3840,7 +4237,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>61</v>
       </c>
@@ -3854,7 +4251,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>62</v>
       </c>
@@ -3868,7 +4265,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>63</v>
       </c>
@@ -3924,7 +4321,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>67</v>
       </c>
@@ -3966,7 +4363,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>70</v>
       </c>
@@ -3980,7 +4377,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>71</v>
       </c>
@@ -4036,7 +4433,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>75</v>
       </c>
@@ -4050,7 +4447,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>76</v>
       </c>
@@ -4064,7 +4461,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>77</v>
       </c>
@@ -4078,7 +4475,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>78</v>
       </c>
@@ -4190,7 +4587,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>86</v>
       </c>
@@ -4204,7 +4601,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>87</v>
       </c>
@@ -4218,7 +4615,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>88</v>
       </c>
@@ -4232,7 +4629,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>89</v>
       </c>
@@ -4260,7 +4657,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>91</v>
       </c>
@@ -4316,7 +4713,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>95</v>
       </c>
@@ -4344,7 +4741,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>97</v>
       </c>
@@ -4386,7 +4783,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>100</v>
       </c>
@@ -4414,7 +4811,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>102</v>
       </c>
@@ -4428,7 +4825,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
         <v>103</v>
       </c>
@@ -4456,7 +4853,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
         <v>105</v>
       </c>
@@ -4470,7 +4867,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
         <v>106</v>
       </c>
@@ -4498,7 +4895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
         <v>108</v>
       </c>
@@ -4526,7 +4923,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>110</v>
       </c>
@@ -4554,7 +4951,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>112</v>
       </c>
@@ -4568,7 +4965,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>113</v>
       </c>
@@ -4582,7 +4979,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>114</v>
       </c>
@@ -4610,7 +5007,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
         <v>116</v>
       </c>
@@ -4624,7 +5021,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
         <v>117</v>
       </c>
@@ -4666,7 +5063,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
         <v>120</v>
       </c>
@@ -4694,7 +5091,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
         <v>122</v>
       </c>
@@ -4820,7 +5217,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>131</v>
       </c>
@@ -4918,7 +5315,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
         <v>138</v>
       </c>
@@ -4932,7 +5329,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>139</v>
       </c>
@@ -4974,7 +5371,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="9">
         <v>142</v>
       </c>
@@ -4988,7 +5385,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="9">
         <v>143</v>
       </c>
@@ -5016,7 +5413,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="9">
         <v>145</v>
       </c>
@@ -5030,7 +5427,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="9">
         <v>146</v>
       </c>
@@ -5058,7 +5455,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="9">
         <v>148</v>
       </c>
@@ -5072,7 +5469,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
         <v>149</v>
       </c>
@@ -5086,7 +5483,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="9">
         <v>150</v>
       </c>
@@ -5114,7 +5511,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="9">
         <v>152</v>
       </c>
@@ -5142,7 +5539,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="9">
         <v>154</v>
       </c>
@@ -5282,7 +5679,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A166" s="9">
         <v>164</v>
       </c>
@@ -5366,7 +5763,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="9">
         <v>170</v>
       </c>
@@ -5380,7 +5777,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="9">
         <v>171</v>
       </c>
@@ -5394,7 +5791,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="9">
         <v>172</v>
       </c>
@@ -5478,7 +5875,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="9">
         <v>178</v>
       </c>
@@ -5492,7 +5889,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="9">
         <v>179</v>
       </c>
@@ -5506,7 +5903,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
         <v>180</v>
       </c>
@@ -5534,7 +5931,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="9">
         <v>182</v>
       </c>
@@ -5548,7 +5945,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="9">
         <v>183</v>
       </c>
@@ -5576,7 +5973,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="9">
         <v>185</v>
       </c>
@@ -5590,7 +5987,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>186</v>
       </c>
@@ -5604,7 +6001,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>187</v>
       </c>
@@ -5688,7 +6085,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>193</v>
       </c>
@@ -5730,7 +6127,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>196</v>
       </c>
@@ -5744,7 +6141,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>197</v>
       </c>
@@ -5842,7 +6239,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>204</v>
       </c>
@@ -5870,7 +6267,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>206</v>
       </c>
@@ -5884,7 +6281,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>207</v>
       </c>
@@ -5940,7 +6337,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A213" s="9">
         <v>211</v>
       </c>
@@ -5954,7 +6351,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="9">
         <v>212</v>
       </c>
@@ -5968,7 +6365,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A215" s="9">
         <v>213</v>
       </c>
@@ -5982,7 +6379,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="9">
         <v>214</v>
       </c>
@@ -5996,7 +6393,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A217" s="9">
         <v>215</v>
       </c>
@@ -6010,7 +6407,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="9">
         <v>216</v>
       </c>
@@ -6038,7 +6435,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="9">
         <v>218</v>
       </c>
@@ -6052,7 +6449,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="9">
         <v>219</v>
       </c>
@@ -6094,7 +6491,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="9">
         <v>222</v>
       </c>
@@ -6122,7 +6519,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="9">
         <v>224</v>
       </c>
@@ -6136,7 +6533,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="9">
         <v>225</v>
       </c>
@@ -6192,7 +6589,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="9">
         <v>229</v>
       </c>
@@ -6206,7 +6603,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="9">
         <v>230</v>
       </c>
@@ -6318,7 +6715,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="9">
         <v>238</v>
       </c>
@@ -6360,7 +6757,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="9">
         <v>241</v>
       </c>
@@ -6374,7 +6771,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A244" s="9">
         <v>242</v>
       </c>
@@ -6416,7 +6813,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="9">
         <v>245</v>
       </c>
@@ -6472,7 +6869,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="9">
         <v>249</v>
       </c>
@@ -6542,7 +6939,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A256" s="9">
         <v>254</v>
       </c>
@@ -6556,7 +6953,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A257" s="9">
         <v>255</v>
       </c>
@@ -6598,7 +6995,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A260" s="9">
         <v>258</v>
       </c>
@@ -6612,7 +7009,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="9">
         <v>259</v>
       </c>
@@ -6626,7 +7023,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="9">
         <v>260</v>
       </c>
@@ -6640,7 +7037,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="9">
         <v>261</v>
       </c>
@@ -6682,7 +7079,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="9">
         <v>264</v>
       </c>
@@ -6794,7 +7191,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A274" s="9">
         <v>272</v>
       </c>
@@ -6808,7 +7205,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="9">
         <v>273</v>
       </c>
@@ -6836,7 +7233,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="9">
         <v>275</v>
       </c>
@@ -6850,7 +7247,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="9">
         <v>276</v>
       </c>
@@ -6864,7 +7261,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A279" s="9">
         <v>277</v>
       </c>
@@ -6878,7 +7275,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="9">
         <v>278</v>
       </c>
@@ -6906,7 +7303,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="9">
         <v>280</v>
       </c>
@@ -6962,7 +7359,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="9">
         <v>284</v>
       </c>
@@ -6990,7 +7387,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A288" s="9">
         <v>286</v>
       </c>
@@ -7018,7 +7415,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="9">
         <v>288</v>
       </c>
@@ -7032,7 +7429,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A291" s="9">
         <v>289</v>
       </c>
@@ -7200,7 +7597,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="9">
         <v>301</v>
       </c>
@@ -7270,7 +7667,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="9">
         <v>306</v>
       </c>
@@ -7284,7 +7681,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="9">
         <v>307</v>
       </c>
@@ -7340,7 +7737,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="9">
         <v>311</v>
       </c>
@@ -7354,7 +7751,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A314" s="9">
         <v>312</v>
       </c>
@@ -7424,7 +7821,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="9">
         <v>317</v>
       </c>
@@ -7452,7 +7849,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="9">
         <v>319</v>
       </c>
@@ -7466,7 +7863,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="9">
         <v>320</v>
       </c>
@@ -7494,7 +7891,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A324" s="9">
         <v>322</v>
       </c>
@@ -7508,7 +7905,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="9">
         <v>323</v>
       </c>
@@ -7522,7 +7919,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="9">
         <v>324</v>
       </c>
@@ -7536,7 +7933,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A327" s="9">
         <v>325</v>
       </c>
@@ -7578,7 +7975,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="9">
         <v>328</v>
       </c>
@@ -7634,7 +8031,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="9">
         <v>332</v>
       </c>
@@ -7690,7 +8087,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="9">
         <v>336</v>
       </c>
@@ -7704,7 +8101,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A339" s="9">
         <v>337</v>
       </c>
@@ -7718,7 +8115,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="9">
         <v>338</v>
       </c>
@@ -7928,7 +8325,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" s="9">
         <v>353</v>
       </c>
@@ -7942,7 +8339,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A356" s="9">
         <v>354</v>
       </c>
@@ -8026,7 +8423,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A362" s="9">
         <v>360</v>
       </c>
@@ -8068,7 +8465,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A365" s="9">
         <v>363</v>
       </c>
@@ -8082,7 +8479,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A366" s="9">
         <v>364</v>
       </c>
@@ -8110,7 +8507,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A368" s="9">
         <v>366</v>
       </c>
@@ -8124,7 +8521,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A369" s="9">
         <v>367</v>
       </c>
@@ -8138,7 +8535,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A370" s="9">
         <v>368</v>
       </c>
@@ -8152,7 +8549,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A371" s="9">
         <v>369</v>
       </c>
@@ -8166,7 +8563,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A372" s="9">
         <v>370</v>
       </c>
@@ -8250,7 +8647,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="9">
         <v>376</v>
       </c>
@@ -8264,7 +8661,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="9">
         <v>377</v>
       </c>
@@ -8278,7 +8675,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="9">
         <v>378</v>
       </c>
@@ -8348,7 +8745,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="9">
         <v>383</v>
       </c>
@@ -8362,7 +8759,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="9">
         <v>384</v>
       </c>
@@ -8390,7 +8787,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="9">
         <v>386</v>
       </c>
@@ -8418,7 +8815,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="9">
         <v>388</v>
       </c>
@@ -8432,7 +8829,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="9">
         <v>389</v>
       </c>
@@ -8502,7 +8899,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="9">
         <v>394</v>
       </c>
@@ -8516,7 +8913,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="9">
         <v>395</v>
       </c>
@@ -8530,7 +8927,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="9">
         <v>396</v>
       </c>
@@ -8544,7 +8941,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A399" s="9">
         <v>397</v>
       </c>
@@ -8558,7 +8955,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="9">
         <v>398</v>
       </c>
@@ -8572,7 +8969,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="9">
         <v>399</v>
       </c>
@@ -8600,7 +8997,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A403" s="9">
         <v>401</v>
       </c>
@@ -8628,7 +9025,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A405" s="9">
         <v>403</v>
       </c>
@@ -8642,7 +9039,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A406" s="9">
         <v>404</v>
       </c>
@@ -8670,7 +9067,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A408" s="9">
         <v>406</v>
       </c>
@@ -8684,7 +9081,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" s="9">
         <v>407</v>
       </c>
@@ -8698,7 +9095,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A410" s="9">
         <v>408</v>
       </c>
@@ -8726,7 +9123,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A412" s="9">
         <v>410</v>
       </c>
@@ -8796,7 +9193,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A417" s="9">
         <v>415</v>
       </c>
@@ -8810,7 +9207,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A418" s="9">
         <v>416</v>
       </c>
@@ -8822,7 +9219,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A419" s="9">
         <v>417</v>
       </c>
@@ -8834,7 +9231,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A420" s="9">
         <v>418</v>
       </c>
@@ -8846,7 +9243,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A421" s="9">
         <v>419</v>
       </c>
@@ -8858,7 +9255,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A422" s="9">
         <v>420</v>
       </c>
@@ -8872,7 +9269,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A423" s="9">
         <v>421</v>
       </c>
@@ -8884,6 +9281,524 @@
       </c>
       <c r="D423" s="2" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B424" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="E424" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B425" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B426" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B427" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B428" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B429" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B430" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B431" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B432" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B433" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B434" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B435" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B436" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B437" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B438" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B439" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B440" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B441" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B442" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B443" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B444" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B445" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B446" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B447" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B448" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B449" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B450" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B451" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B452" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B453" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B454" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B455" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B456" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B457" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B458" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B459" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B460" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B461" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B462" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B463" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B464" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B465" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B466" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B467" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B468" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B469" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B470" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B471" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B472" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B473" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B474" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B475" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B476" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B477" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B478" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B479" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B480" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B481" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B482" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B483" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B484" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B485" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B486" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B487" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
